--- a/Test Data/TC_52210_11_12_13_Verify_Power_Calculation_Is_Populated_Where_Error_And_Warning_Messages_Are_Displayed_FIM.xlsx
+++ b/Test Data/TC_52210_11_12_13_Verify_Power_Calculation_Is_Populated_Where_Error_And_Warning_Messages_Are_Displayed_FIM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1DDFBE-BDB9-486C-8394-699B24CA030F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF293633-9F04-4A2A-90B5-EE8DEF5B4082}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="24V_And_SystemLoad" sheetId="6" r:id="rId1"/>
@@ -154,9 +154,6 @@
     <t>FIM</t>
   </si>
   <si>
-    <t>Load at 24V has reached 95% for panel Node1-MX 4000,System load has reached 95% for panel Node1-MX 4000</t>
-  </si>
-  <si>
     <t>Load at 24V has reached 100% for panel Node1-MX 4000,System load has reached 100% for panel Node1-MX 4000</t>
   </si>
   <si>
@@ -169,15 +166,6 @@
     <t>DDM 800 Loop - 7</t>
   </si>
   <si>
-    <t>DC value has reached 100% for panel Node1-MX 4000,Load at 40V has reached 95% for panel Node1-MX 4000-Built-in Loop-A</t>
-  </si>
-  <si>
-    <t>AC value has reached 95% for panel Node1-MX 4000,DC value has reached 100% for panel Node1-MX 4000,Load at 24V has reached 100% for panel Node1-MX 4000,Load at 40V has reached 100% for panel Node1-MX 4000-Built-in Loop-A,System load has reached 100% for panel Node1-MX 4000</t>
-  </si>
-  <si>
-    <t>AC value has reached 100% for panel Node1-MX 4000,DC value has reached 100% for panel Node1-MX 4000,Load at 24V has reached 100% for panel Node1-MX 4000,Load at 40V has reached 100% for panel Node1-MX 4000-Built-in Loop-A,System load has reached 100% for panel Node1-MX 4000</t>
-  </si>
-  <si>
     <t>Extra IS units value has reached 100% for panel Node1-MX 4000</t>
   </si>
   <si>
@@ -188,6 +176,18 @@
   </si>
   <si>
     <t>DC value has reached 100% for panel Node1-MX 4000,Load at 24V has reached 100% for panel Node1-MX 4000,System load has reached 100% for panel Node1-MX 4000</t>
+  </si>
+  <si>
+    <t>Load at 24V has reached 95% for panel Node1-MX 4000,System load has reached 100% for panel Node1-MX 4000</t>
+  </si>
+  <si>
+    <t>DC value has reached 100% for panel Node1-MX 4000</t>
+  </si>
+  <si>
+    <t>DC value has reached 100% for panel Node1-MX 4000,Load at 24V has reached 100% for panel Node1-MX 4000,Load at 40V has reached 100% for panel Node1-MX 4000-Built-in Loop-A,System load has reached 100% for panel Node1-MX 4000,AC value has reached 95% for panel Node1-MX 4000</t>
+  </si>
+  <si>
+    <t>DC value has reached 100% for panel Node1-MX 4000,Load at 24V has reached 100% for panel Node1-MX 4000,Load at 40V has reached 100% for panel Node1-MX 4000-Built-in Loop-A,System load has reached 100% for panel Node1-MX 4000,AC value has reached 100% for panel Node1-MX 4000</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,7 +738,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5">
         <v>9</v>
@@ -752,13 +752,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5">
         <v>3</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -766,13 +766,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +789,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,7 +883,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5">
         <v>6</v>
@@ -897,13 +897,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5">
         <v>12</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -933,7 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEFEA0C-71BE-4095-A5F4-5BD591AAB431}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1023,7 +1023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1034,10 +1034,10 @@
         <v>31</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1048,10 +1048,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D039028F-250C-43A1-A01D-74387B073A3C}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1358,7 +1358,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">

--- a/Test Data/TC_52210_11_12_13_Verify_Power_Calculation_Is_Populated_Where_Error_And_Warning_Messages_Are_Displayed_FIM.xlsx
+++ b/Test Data/TC_52210_11_12_13_Verify_Power_Calculation_Is_Populated_Where_Error_And_Warning_Messages_Are_Displayed_FIM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF293633-9F04-4A2A-90B5-EE8DEF5B4082}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B8774D-8C90-4D62-BBC3-E0E27EAFCF97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="61">
   <si>
     <t>Label</t>
   </si>
@@ -94,12 +94,6 @@
     <t>DDM 800 Loop</t>
   </si>
   <si>
-    <t>DDM 800 Loop - 13</t>
-  </si>
-  <si>
-    <t>DDM 800 Loop - 14</t>
-  </si>
-  <si>
     <t>DDM 800 Loop - 15</t>
   </si>
   <si>
@@ -163,18 +157,12 @@
     <t>FV 411 F - 11</t>
   </si>
   <si>
-    <t>DDM 800 Loop - 7</t>
-  </si>
-  <si>
     <t>Extra IS units value has reached 100% for panel Node1-MX 4000</t>
   </si>
   <si>
     <t>DDM 800 Loop - 12</t>
   </si>
   <si>
-    <t>DC value has reached 95% for panel Node1-MX 4000,Load at 24V has reached 100% for panel Node1-MX 4000,System load has reached 100% for panel Node1-MX 4000</t>
-  </si>
-  <si>
     <t>DC value has reached 100% for panel Node1-MX 4000,Load at 24V has reached 100% for panel Node1-MX 4000,System load has reached 100% for panel Node1-MX 4000</t>
   </si>
   <si>
@@ -184,10 +172,52 @@
     <t>DC value has reached 100% for panel Node1-MX 4000</t>
   </si>
   <si>
-    <t>DC value has reached 100% for panel Node1-MX 4000,Load at 24V has reached 100% for panel Node1-MX 4000,Load at 40V has reached 100% for panel Node1-MX 4000-Built-in Loop-A,System load has reached 100% for panel Node1-MX 4000,AC value has reached 95% for panel Node1-MX 4000</t>
-  </si>
-  <si>
-    <t>DC value has reached 100% for panel Node1-MX 4000,Load at 24V has reached 100% for panel Node1-MX 4000,Load at 40V has reached 100% for panel Node1-MX 4000-Built-in Loop-A,System load has reached 100% for panel Node1-MX 4000,AC value has reached 100% for panel Node1-MX 4000</t>
+    <t>Loading Details Name</t>
+  </si>
+  <si>
+    <t>Main Processor 24V (A)</t>
+  </si>
+  <si>
+    <t>40V Loading Details Name</t>
+  </si>
+  <si>
+    <t>DC Loading Details Name</t>
+  </si>
+  <si>
+    <t>40V (A)</t>
+  </si>
+  <si>
+    <t>Current (DC Units)</t>
+  </si>
+  <si>
+    <t>DDM 800 Loop - 8</t>
+  </si>
+  <si>
+    <t>DC value has reached 100% for panel Node1-MX 4000,Load at 40V has reached 95% for panel Node1-MX 4000,System load has reached 100% for panel Node1-MX 4000</t>
+  </si>
+  <si>
+    <t>DDM 800 Loop - 32</t>
+  </si>
+  <si>
+    <t>AC value has reached 95% for panel Node1-MX 4000,DC value has reached 100% for panel Node1-MX 4000,Load at 40V has reached 100% for panel Node1-MX 4000-Built-in Loop-A,System load has reached 100% for panel Node1-MX 4000</t>
+  </si>
+  <si>
+    <t>AC value has reached 100% for panel Node1-MX 4000,DC value has reached 100% for panel Node1-MX 4000,Load at 40V has reached 100% for panel Node1-MX 4000-Built-in Loop-A,System load has reached 100% for panel Node1-MX 4000</t>
+  </si>
+  <si>
+    <t>DDM 800 Loop - 49</t>
+  </si>
+  <si>
+    <t>DDM 800 Loop - 33</t>
+  </si>
+  <si>
+    <t>DDM 800 Loop - 50</t>
+  </si>
+  <si>
+    <t>AC Loading Details Name</t>
+  </si>
+  <si>
+    <t>Signal (AC Units)</t>
   </si>
 </sst>
 </file>
@@ -642,7 +672,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,6 +682,7 @@
     <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.109375" customWidth="1"/>
     <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -662,7 +693,9 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="19"/>
-      <c r="G1" s="9"/>
+      <c r="G1" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="H1" s="9"/>
       <c r="I1" s="10"/>
     </row>
@@ -678,6 +711,9 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="11"/>
+      <c r="G2" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -713,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -738,7 +774,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5">
         <v>9</v>
@@ -752,13 +788,13 @@
         <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5">
         <v>3</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -766,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +825,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,6 +835,7 @@
     <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.109375" customWidth="1"/>
     <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -809,8 +846,12 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="19"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="G1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -825,6 +866,12 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="11"/>
+      <c r="G2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -858,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -883,27 +930,27 @@
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C9" s="5">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -911,13 +958,13 @@
         <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -931,10 +978,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EEFEA0C-71BE-4095-A5F4-5BD591AAB431}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,9 +991,10 @@
     <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.109375" customWidth="1"/>
     <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
@@ -954,11 +1002,12 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="19"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -970,8 +1019,11 @@
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G2" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -984,7 +1036,7 @@
       </c>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -997,19 +1049,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1023,46 +1075,46 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C8" s="5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C9" s="5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C10" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1104,7 +1156,7 @@
       <c r="D1" s="18"/>
       <c r="E1" s="19"/>
       <c r="F1" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>13</v>
@@ -1125,7 +1177,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="11"/>
       <c r="F2" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>14</v>
@@ -1163,7 +1215,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1177,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>13</v>
@@ -1185,13 +1237,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>14</v>
@@ -1199,13 +1251,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>14</v>
@@ -1213,13 +1265,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>14</v>
@@ -1227,13 +1279,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>14</v>
@@ -1241,13 +1293,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>14</v>
@@ -1255,13 +1307,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>14</v>
@@ -1269,13 +1321,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>14</v>
@@ -1283,13 +1335,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>14</v>
@@ -1334,7 +1386,7 @@
       <c r="D1" s="18"/>
       <c r="E1" s="19"/>
       <c r="F1" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>13</v>
@@ -1355,10 +1407,10 @@
       <c r="D2" s="8"/>
       <c r="E2" s="11"/>
       <c r="F2" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1393,7 +1445,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1407,21 +1459,21 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5">
         <v>10</v>
@@ -1429,13 +1481,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5">
         <v>10</v>
@@ -1443,13 +1495,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5">
         <v>10</v>
@@ -1457,13 +1509,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
@@ -1471,13 +1523,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="5">
         <v>10</v>
